--- a/Instances/12_NonStationary_b4_fe25_en_rk50_ll0_l40_HFalse_c2.xlsx
+++ b/Instances/12_NonStationary_b4_fe25_en_rk50_ll0_l40_HFalse_c2.xlsx
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -448,7 +448,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -24846,13 +24846,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>135</v>
+        <v>89</v>
       </c>
       <c r="D2" t="n">
         <v>0.012628</v>
       </c>
       <c r="E2" t="n">
-        <v>0.08668000000000001</v>
+        <v>0.140264</v>
       </c>
       <c r="F2" t="n">
         <v>0.05051200000000002</v>
@@ -24880,13 +24880,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>452</v>
+        <v>353</v>
       </c>
       <c r="D3" t="n">
         <v>0.012628</v>
       </c>
       <c r="E3" t="n">
-        <v>0.184392</v>
+        <v>0.242704</v>
       </c>
       <c r="F3" t="n">
         <v>0.05051200000000002</v>
@@ -24914,13 +24914,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>16</v>
+        <v>159</v>
       </c>
       <c r="D4" t="n">
         <v>0.012628</v>
       </c>
       <c r="E4" t="n">
-        <v>0.130808</v>
+        <v>0.253736</v>
       </c>
       <c r="F4" t="n">
         <v>0.05051200000000002</v>
@@ -24948,13 +24948,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="D5" t="n">
         <v>0.012628</v>
       </c>
       <c r="E5" t="n">
-        <v>0.080376</v>
+        <v>0.305744</v>
       </c>
       <c r="F5" t="n">
         <v>0.05051200000000002</v>
@@ -24982,13 +24982,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0.012628</v>
       </c>
       <c r="E6" t="n">
-        <v>0.22852</v>
+        <v>0.3546</v>
       </c>
       <c r="F6" t="n">
         <v>0.05051200000000002</v>
@@ -25016,13 +25016,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>125</v>
+        <v>645</v>
       </c>
       <c r="D7" t="n">
         <v>0.012412</v>
       </c>
       <c r="E7" t="n">
-        <v>0.10244</v>
+        <v>0.258464</v>
       </c>
       <c r="F7" t="n">
         <v>0.04964800000000001</v>
@@ -25050,13 +25050,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="D8" t="n">
         <v>0.012412</v>
       </c>
       <c r="E8" t="n">
-        <v>0.151296</v>
+        <v>0.483832</v>
       </c>
       <c r="F8" t="n">
         <v>0.04964800000000001</v>
@@ -25084,13 +25084,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>718</v>
+        <v>1224</v>
       </c>
       <c r="D9" t="n">
         <v>0.012412</v>
       </c>
       <c r="E9" t="n">
-        <v>0.788</v>
+        <v>0.8668000000000001</v>
       </c>
       <c r="F9" t="n">
         <v>0.04964800000000001</v>
@@ -25118,13 +25118,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>443</v>
+        <v>679</v>
       </c>
       <c r="D10" t="n">
         <v>0.012412</v>
       </c>
       <c r="E10" t="n">
-        <v>0.381392</v>
+        <v>0.723384</v>
       </c>
       <c r="F10" t="n">
         <v>0.04964800000000001</v>
@@ -25152,13 +25152,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>3532</v>
+        <v>4789</v>
       </c>
       <c r="D11" t="n">
         <v>0.013104</v>
       </c>
       <c r="E11" t="n">
-        <v>2.642952</v>
+        <v>4.152760000000001</v>
       </c>
       <c r="F11" t="n">
         <v>0.05241600000000001</v>
@@ -25186,13 +25186,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>2449</v>
+        <v>1953</v>
       </c>
       <c r="D12" t="n">
         <v>0.013104</v>
       </c>
       <c r="E12" t="n">
-        <v>1.64692</v>
+        <v>4.012496000000001</v>
       </c>
       <c r="F12" t="n">
         <v>0.05241600000000001</v>
@@ -25220,13 +25220,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>1069</v>
+        <v>4183</v>
       </c>
       <c r="D13" t="n">
         <v>0.013104</v>
       </c>
       <c r="E13" t="n">
-        <v>1.374272</v>
+        <v>3.71936</v>
       </c>
       <c r="F13" t="n">
         <v>0.05241600000000001</v>
@@ -25254,13 +25254,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>1395</v>
+        <v>878</v>
       </c>
       <c r="D14" t="n">
         <v>0.013104</v>
       </c>
       <c r="E14" t="n">
-        <v>0.546872</v>
+        <v>1.204064</v>
       </c>
       <c r="F14" t="n">
         <v>0.05241600000000001</v>
@@ -25288,13 +25288,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>3132</v>
+        <v>886</v>
       </c>
       <c r="D15" t="n">
         <v>0.013104</v>
       </c>
       <c r="E15" t="n">
-        <v>2.641376</v>
+        <v>5.341064</v>
       </c>
       <c r="F15" t="n">
         <v>0.05241600000000001</v>
@@ -25322,13 +25322,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="D16" t="n">
         <v>0.013104</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9976080000000001</v>
+        <v>1.821856</v>
       </c>
       <c r="F16" t="n">
         <v>0.05241600000000001</v>
@@ -25356,13 +25356,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>5860</v>
+        <v>4993</v>
       </c>
       <c r="D17" t="n">
         <v>0.013104</v>
       </c>
       <c r="E17" t="n">
-        <v>2.62404</v>
+        <v>4.516816</v>
       </c>
       <c r="F17" t="n">
         <v>0.05241600000000001</v>
@@ -25390,13 +25390,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>2330</v>
+        <v>1141</v>
       </c>
       <c r="D18" t="n">
         <v>0.013104</v>
       </c>
       <c r="E18" t="n">
-        <v>1.984184</v>
+        <v>2.18276</v>
       </c>
       <c r="F18" t="n">
         <v>0.05241600000000001</v>
@@ -25424,13 +25424,13 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>5792</v>
+        <v>3450</v>
       </c>
       <c r="D19" t="n">
         <v>0.013104</v>
       </c>
       <c r="E19" t="n">
-        <v>3.383672</v>
+        <v>5.990376</v>
       </c>
       <c r="F19" t="n">
         <v>0.05241600000000001</v>
@@ -25458,13 +25458,13 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>1408</v>
+        <v>1335</v>
       </c>
       <c r="D20" t="n">
         <v>0.013104</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8589200000000001</v>
+        <v>3.059016</v>
       </c>
       <c r="F20" t="n">
         <v>0.05241600000000001</v>
@@ -25492,13 +25492,13 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>922</v>
+        <v>2436</v>
       </c>
       <c r="D21" t="n">
         <v>0.013104</v>
       </c>
       <c r="E21" t="n">
-        <v>0.762784</v>
+        <v>3.873808</v>
       </c>
       <c r="F21" t="n">
         <v>0.05241600000000001</v>
@@ -25526,13 +25526,13 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>213</v>
+        <v>334</v>
       </c>
       <c r="D22" t="n">
         <v>0.009776000000000002</v>
       </c>
       <c r="E22" t="n">
-        <v>0.09613600000000001</v>
+        <v>0.233248</v>
       </c>
       <c r="F22" t="n">
         <v>0.03910400000000001</v>
@@ -25560,13 +25560,13 @@
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D23" t="n">
         <v>0.009776000000000002</v>
       </c>
       <c r="E23" t="n">
-        <v>0.072496</v>
+        <v>0.108744</v>
       </c>
       <c r="F23" t="n">
         <v>0.03910400000000001</v>
@@ -25594,13 +25594,13 @@
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0.009776000000000002</v>
       </c>
       <c r="E24" t="n">
-        <v>0.107168</v>
+        <v>0.08510400000000001</v>
       </c>
       <c r="F24" t="n">
         <v>0.03910400000000001</v>
@@ -25628,13 +25628,13 @@
         <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="D25" t="n">
         <v>0.009776000000000002</v>
       </c>
       <c r="E25" t="n">
-        <v>0.04728</v>
+        <v>0.044128</v>
       </c>
       <c r="F25" t="n">
         <v>0.03910400000000001</v>
@@ -25662,13 +25662,13 @@
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>182</v>
+        <v>293</v>
       </c>
       <c r="D26" t="n">
         <v>0.009776000000000002</v>
       </c>
       <c r="E26" t="n">
-        <v>0.176512</v>
+        <v>0.258464</v>
       </c>
       <c r="F26" t="n">
         <v>0.03910400000000001</v>
@@ -25696,13 +25696,13 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>593</v>
+        <v>304</v>
       </c>
       <c r="D27" t="n">
         <v>0.00996</v>
       </c>
       <c r="E27" t="n">
-        <v>0.400304</v>
+        <v>0.494864</v>
       </c>
       <c r="F27" t="n">
         <v>0.03984</v>
@@ -25730,13 +25730,13 @@
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>474</v>
+        <v>219</v>
       </c>
       <c r="D28" t="n">
         <v>0.00996</v>
       </c>
       <c r="E28" t="n">
-        <v>0.217488</v>
+        <v>0.209608</v>
       </c>
       <c r="F28" t="n">
         <v>0.03984</v>
@@ -25764,13 +25764,13 @@
         <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="D29" t="n">
         <v>0.00996</v>
       </c>
       <c r="E29" t="n">
-        <v>0.182816</v>
+        <v>0.255312</v>
       </c>
       <c r="F29" t="n">
         <v>0.03984</v>
@@ -25798,13 +25798,13 @@
         <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>265</v>
+        <v>150</v>
       </c>
       <c r="D30" t="n">
         <v>0.00996</v>
       </c>
       <c r="E30" t="n">
-        <v>0.129232</v>
+        <v>0.37036</v>
       </c>
       <c r="F30" t="n">
         <v>0.03984</v>
@@ -25832,13 +25832,13 @@
         <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>4600</v>
+        <v>2339</v>
       </c>
       <c r="D31" t="n">
         <v>0.009924000000000001</v>
       </c>
       <c r="E31" t="n">
-        <v>2.126024</v>
+        <v>2.264712</v>
       </c>
       <c r="F31" t="n">
         <v>0.039696</v>
@@ -25866,13 +25866,13 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>3549</v>
+        <v>3430</v>
       </c>
       <c r="D32" t="n">
         <v>0.009924000000000001</v>
       </c>
       <c r="E32" t="n">
-        <v>3.038528</v>
+        <v>4.368672</v>
       </c>
       <c r="F32" t="n">
         <v>0.039696</v>
@@ -25900,13 +25900,13 @@
         <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>877</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0.009924000000000001</v>
       </c>
       <c r="E33" t="n">
-        <v>0.8557680000000001</v>
+        <v>2.35612</v>
       </c>
       <c r="F33" t="n">
         <v>0.039696</v>
@@ -25934,13 +25934,13 @@
         <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>2268</v>
+        <v>870</v>
       </c>
       <c r="D34" t="n">
         <v>0.009924000000000001</v>
       </c>
       <c r="E34" t="n">
-        <v>1.163088</v>
+        <v>2.170152</v>
       </c>
       <c r="F34" t="n">
         <v>0.039696</v>
@@ -25968,13 +25968,13 @@
         <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>4721</v>
+        <v>902</v>
       </c>
       <c r="D35" t="n">
         <v>0.009924000000000001</v>
       </c>
       <c r="E35" t="n">
-        <v>3.67208</v>
+        <v>3.713056</v>
       </c>
       <c r="F35" t="n">
         <v>0.039696</v>
@@ -26002,13 +26002,13 @@
         <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>2161</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0.009924000000000001</v>
       </c>
       <c r="E36" t="n">
-        <v>2.083472</v>
+        <v>3.779248</v>
       </c>
       <c r="F36" t="n">
         <v>0.039696</v>
@@ -26036,13 +26036,13 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>3344</v>
+        <v>3187</v>
       </c>
       <c r="D37" t="n">
         <v>0.009924000000000001</v>
       </c>
       <c r="E37" t="n">
-        <v>2.004672</v>
+        <v>4.794192000000001</v>
       </c>
       <c r="F37" t="n">
         <v>0.039696</v>
@@ -26070,13 +26070,13 @@
         <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>447</v>
+        <v>1084</v>
       </c>
       <c r="D38" t="n">
         <v>0.009924000000000001</v>
       </c>
       <c r="E38" t="n">
-        <v>1.248192</v>
+        <v>1.42628</v>
       </c>
       <c r="F38" t="n">
         <v>0.039696</v>
@@ -26104,13 +26104,13 @@
         <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>6018</v>
+        <v>4421</v>
       </c>
       <c r="D39" t="n">
         <v>0.009924000000000001</v>
       </c>
       <c r="E39" t="n">
-        <v>3.588552</v>
+        <v>7.331552</v>
       </c>
       <c r="F39" t="n">
         <v>0.039696</v>
@@ -26138,13 +26138,13 @@
         <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>1202</v>
+        <v>1778</v>
       </c>
       <c r="D40" t="n">
         <v>0.009924000000000001</v>
       </c>
       <c r="E40" t="n">
-        <v>0.6887120000000001</v>
+        <v>1.884896</v>
       </c>
       <c r="F40" t="n">
         <v>0.039696</v>
@@ -26172,13 +26172,13 @@
         <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>771</v>
+        <v>145</v>
       </c>
       <c r="D41" t="n">
         <v>0.009924000000000001</v>
       </c>
       <c r="E41" t="n">
-        <v>0.4932880000000001</v>
+        <v>1.227704</v>
       </c>
       <c r="F41" t="n">
         <v>0.039696</v>
@@ -26206,13 +26206,13 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>1879</v>
+        <v>719</v>
       </c>
       <c r="D42" t="n">
         <v>0.012024</v>
       </c>
       <c r="E42" t="n">
-        <v>1.72572</v>
+        <v>2.491656</v>
       </c>
       <c r="F42" t="n">
         <v>0.04809599999999999</v>
@@ -26240,13 +26240,13 @@
         <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>3904</v>
+        <v>1637</v>
       </c>
       <c r="D43" t="n">
         <v>0.012024</v>
       </c>
       <c r="E43" t="n">
-        <v>1.37112</v>
+        <v>2.762728</v>
       </c>
       <c r="F43" t="n">
         <v>0.04809599999999999</v>
@@ -26274,13 +26274,13 @@
         <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>3632</v>
+        <v>3004</v>
       </c>
       <c r="D44" t="n">
         <v>0.012024</v>
       </c>
       <c r="E44" t="n">
-        <v>1.719416</v>
+        <v>2.349816</v>
       </c>
       <c r="F44" t="n">
         <v>0.04809599999999999</v>
@@ -26308,13 +26308,13 @@
         <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>1122</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0.012024</v>
       </c>
       <c r="E45" t="n">
-        <v>0.4050320000000001</v>
+        <v>0.674528</v>
       </c>
       <c r="F45" t="n">
         <v>0.04809599999999999</v>
@@ -26342,13 +26342,13 @@
         <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>2329</v>
+        <v>6324</v>
       </c>
       <c r="D46" t="n">
         <v>0.012024</v>
       </c>
       <c r="E46" t="n">
-        <v>3.032224</v>
+        <v>4.091296000000001</v>
       </c>
       <c r="F46" t="n">
         <v>0.04809599999999999</v>
@@ -26376,13 +26376,13 @@
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>4925</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
         <v>0.012024</v>
       </c>
       <c r="E47" t="n">
-        <v>2.723328</v>
+        <v>2.817888</v>
       </c>
       <c r="F47" t="n">
         <v>0.04809599999999999</v>
@@ -26410,13 +26410,13 @@
         <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>3575</v>
       </c>
       <c r="D48" t="n">
         <v>0.012024</v>
       </c>
       <c r="E48" t="n">
-        <v>1.903808</v>
+        <v>5.293784</v>
       </c>
       <c r="F48" t="n">
         <v>0.04809599999999999</v>
@@ -26444,13 +26444,13 @@
         <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>1832</v>
+        <v>727</v>
       </c>
       <c r="D49" t="n">
         <v>0.012024</v>
       </c>
       <c r="E49" t="n">
-        <v>1.027552</v>
+        <v>0.9345680000000001</v>
       </c>
       <c r="F49" t="n">
         <v>0.04809599999999999</v>
@@ -26478,13 +26478,13 @@
         <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>395</v>
+        <v>987</v>
       </c>
       <c r="D50" t="n">
         <v>0.012024</v>
       </c>
       <c r="E50" t="n">
-        <v>0.3766640000000001</v>
+        <v>0.7265360000000001</v>
       </c>
       <c r="F50" t="n">
         <v>0.04809599999999999</v>
@@ -26512,13 +26512,13 @@
         <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>3934</v>
+        <v>0</v>
       </c>
       <c r="D51" t="n">
         <v>0.012024</v>
       </c>
       <c r="E51" t="n">
-        <v>2.8368</v>
+        <v>2.463288</v>
       </c>
       <c r="F51" t="n">
         <v>0.04809599999999999</v>
@@ -26546,13 +26546,13 @@
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>1801</v>
+        <v>23</v>
       </c>
       <c r="D52" t="n">
         <v>0.012024</v>
       </c>
       <c r="E52" t="n">
-        <v>0.8147920000000001</v>
+        <v>1.616976</v>
       </c>
       <c r="F52" t="n">
         <v>0.04809599999999999</v>
@@ -26586,7 +26586,7 @@
         <v>0.001988</v>
       </c>
       <c r="E53" t="n">
-        <v>20.543232</v>
+        <v>37.77152</v>
       </c>
       <c r="F53" t="n">
         <v>0.007952000000000001</v>
@@ -26620,7 +26620,7 @@
         <v>0.002004</v>
       </c>
       <c r="E54" t="n">
-        <v>8.740608</v>
+        <v>12.778752</v>
       </c>
       <c r="F54" t="n">
         <v>0.008015999999999999</v>
@@ -26654,7 +26654,7 @@
         <v>0.01184</v>
       </c>
       <c r="E55" t="n">
-        <v>0.155144</v>
+        <v>0.283112</v>
       </c>
       <c r="F55" t="n">
         <v>0.04736000000000001</v>
@@ -26688,7 +26688,7 @@
         <v>0.011624</v>
       </c>
       <c r="E56" t="n">
-        <v>0.353976</v>
+        <v>0.58016</v>
       </c>
       <c r="F56" t="n">
         <v>0.04649600000000001</v>
@@ -26722,7 +26722,7 @@
         <v>0.012316</v>
       </c>
       <c r="E57" t="n">
-        <v>12.35</v>
+        <v>25.301</v>
       </c>
       <c r="F57" t="n">
         <v>0.04926400000000001</v>
@@ -26756,7 +26756,7 @@
         <v>0.008988000000000001</v>
       </c>
       <c r="E58" t="n">
-        <v>0.091296</v>
+        <v>0.133344</v>
       </c>
       <c r="F58" t="n">
         <v>0.035952</v>
@@ -26790,7 +26790,7 @@
         <v>0.009172</v>
       </c>
       <c r="E59" t="n">
-        <v>0.45784</v>
+        <v>0.654944</v>
       </c>
       <c r="F59" t="n">
         <v>0.036688</v>
@@ -26824,7 +26824,7 @@
         <v>0.009136</v>
       </c>
       <c r="E60" t="n">
-        <v>6.490888</v>
+        <v>10.935592</v>
       </c>
       <c r="F60" t="n">
         <v>0.036544</v>
@@ -26858,7 +26858,7 @@
         <v>0.011236</v>
       </c>
       <c r="E61" t="n">
-        <v>6.737552</v>
+        <v>9.850287999999999</v>
       </c>
       <c r="F61" t="n">
         <v>0.04494399999999999</v>
@@ -26886,13 +26886,13 @@
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>75539</v>
+        <v>69398</v>
       </c>
       <c r="D62" t="n">
         <v>0.000324</v>
       </c>
       <c r="E62" t="n">
-        <v>25.461864</v>
+        <v>44.037432</v>
       </c>
       <c r="F62" t="n">
         <v>0.001296</v>
@@ -26920,13 +26920,13 @@
         <v>1</v>
       </c>
       <c r="C63" t="n">
-        <v>75539</v>
+        <v>69398</v>
       </c>
       <c r="D63" t="n">
         <v>0.000212</v>
       </c>
       <c r="E63" t="n">
-        <v>16.660232</v>
+        <v>28.814616</v>
       </c>
       <c r="F63" t="n">
         <v>0.0008480000000000001</v>
@@ -26954,13 +26954,13 @@
         <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>75539</v>
+        <v>69398</v>
       </c>
       <c r="D64" t="n">
         <v>0.00036</v>
       </c>
       <c r="E64" t="n">
-        <v>28.29096</v>
+        <v>48.93048</v>
       </c>
       <c r="F64" t="n">
         <v>0.00144</v>
@@ -26988,13 +26988,13 @@
         <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>75539</v>
+        <v>69398</v>
       </c>
       <c r="D65" t="n">
         <v>0.000328</v>
       </c>
       <c r="E65" t="n">
-        <v>25.776208</v>
+        <v>44.581104</v>
       </c>
       <c r="F65" t="n">
         <v>0.001312</v>
@@ -27022,13 +27022,13 @@
         <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>75539</v>
+        <v>69398</v>
       </c>
       <c r="D66" t="n">
         <v>0.000212</v>
       </c>
       <c r="E66" t="n">
-        <v>16.660232</v>
+        <v>28.814616</v>
       </c>
       <c r="F66" t="n">
         <v>0.0008480000000000001</v>
@@ -27056,13 +27056,13 @@
         <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>75539</v>
+        <v>69398</v>
       </c>
       <c r="D67" t="n">
         <v>0.000184</v>
       </c>
       <c r="E67" t="n">
-        <v>14.459824</v>
+        <v>25.008912</v>
       </c>
       <c r="F67" t="n">
         <v>0.0007360000000000001</v>
@@ -27096,7 +27096,7 @@
         <v>0.000144</v>
       </c>
       <c r="E68" t="n">
-        <v>3.277728</v>
+        <v>4.792032</v>
       </c>
       <c r="F68" t="n">
         <v>0.000576</v>
@@ -27130,7 +27130,7 @@
         <v>0.000224</v>
       </c>
       <c r="E69" t="n">
-        <v>11.463872</v>
+        <v>18.07904</v>
       </c>
       <c r="F69" t="n">
         <v>0.0008960000000000001</v>
@@ -27164,7 +27164,7 @@
         <v>0.000188</v>
       </c>
       <c r="E70" t="n">
-        <v>5.152704</v>
+        <v>10.379104</v>
       </c>
       <c r="F70" t="n">
         <v>0.000752</v>
@@ -27192,13 +27192,13 @@
         <v>1</v>
       </c>
       <c r="C71" t="n">
-        <v>1240</v>
+        <v>848</v>
       </c>
       <c r="D71" t="n">
         <v>0.000212</v>
       </c>
       <c r="E71" t="n">
-        <v>0.191224</v>
+        <v>0.348952</v>
       </c>
       <c r="F71" t="n">
         <v>0.0008480000000000001</v>
@@ -27226,13 +27226,13 @@
         <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>1702</v>
+        <v>1168</v>
       </c>
       <c r="D72" t="n">
         <v>0.000528</v>
       </c>
       <c r="E72" t="n">
-        <v>0.8110080000000001</v>
+        <v>1.358016</v>
       </c>
       <c r="F72" t="n">
         <v>0.002112</v>
@@ -27260,13 +27260,13 @@
         <v>1</v>
       </c>
       <c r="C73" t="n">
-        <v>2489</v>
+        <v>1535</v>
       </c>
       <c r="D73" t="n">
         <v>0.000148</v>
       </c>
       <c r="E73" t="n">
-        <v>0.267288</v>
+        <v>0.43808</v>
       </c>
       <c r="F73" t="n">
         <v>0.000592</v>
@@ -27294,13 +27294,13 @@
         <v>1</v>
       </c>
       <c r="C74" t="n">
-        <v>3561</v>
+        <v>2429</v>
       </c>
       <c r="D74" t="n">
         <v>0.000352</v>
       </c>
       <c r="E74" t="n">
-        <v>1.051072</v>
+        <v>1.636096</v>
       </c>
       <c r="F74" t="n">
         <v>0.001408</v>
@@ -27328,13 +27328,13 @@
         <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>22990</v>
+        <v>26039</v>
       </c>
       <c r="D75" t="n">
         <v>0.000336</v>
       </c>
       <c r="E75" t="n">
-        <v>8.299199999999999</v>
+        <v>17.002272</v>
       </c>
       <c r="F75" t="n">
         <v>0.001344</v>
@@ -27362,13 +27362,13 @@
         <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>22990</v>
+        <v>26039</v>
       </c>
       <c r="D76" t="n">
         <v>0.000352</v>
       </c>
       <c r="E76" t="n">
-        <v>8.694400000000002</v>
+        <v>17.811904</v>
       </c>
       <c r="F76" t="n">
         <v>0.001408</v>
@@ -27396,13 +27396,13 @@
         <v>1</v>
       </c>
       <c r="C77" t="n">
-        <v>70276</v>
+        <v>65801</v>
       </c>
       <c r="D77" t="n">
         <v>0.0002</v>
       </c>
       <c r="E77" t="n">
-        <v>14.8128</v>
+        <v>25.7396</v>
       </c>
       <c r="F77" t="n">
         <v>0.0008</v>
@@ -27430,13 +27430,13 @@
         <v>1</v>
       </c>
       <c r="C78" t="n">
-        <v>462</v>
+        <v>320</v>
       </c>
       <c r="D78" t="n">
         <v>0.000152</v>
       </c>
       <c r="E78" t="n">
-        <v>0.09636800000000001</v>
+        <v>0.140752</v>
       </c>
       <c r="F78" t="n">
         <v>0.000608</v>
@@ -27464,13 +27464,13 @@
         <v>1</v>
       </c>
       <c r="C79" t="n">
-        <v>1072</v>
+        <v>894</v>
       </c>
       <c r="D79" t="n">
         <v>0.000268</v>
       </c>
       <c r="E79" t="n">
-        <v>0.31624</v>
+        <v>0.452384</v>
       </c>
       <c r="F79" t="n">
         <v>0.001072</v>
@@ -27498,13 +27498,13 @@
         <v>1</v>
       </c>
       <c r="C80" t="n">
-        <v>75539</v>
+        <v>69398</v>
       </c>
       <c r="D80" t="n">
         <v>0.0002720000000000001</v>
       </c>
       <c r="E80" t="n">
-        <v>21.37539200000001</v>
+        <v>36.96969600000001</v>
       </c>
       <c r="F80" t="n">
         <v>0.001088</v>
@@ -27532,13 +27532,13 @@
         <v>1</v>
       </c>
       <c r="C81" t="n">
-        <v>26923</v>
+        <v>26811</v>
       </c>
       <c r="D81" t="n">
         <v>0.000332</v>
       </c>
       <c r="E81" t="n">
-        <v>8.831863999999999</v>
+        <v>14.879576</v>
       </c>
       <c r="F81" t="n">
         <v>0.001328</v>
@@ -27566,13 +27566,13 @@
         <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>26923</v>
+        <v>26811</v>
       </c>
       <c r="D82" t="n">
         <v>0.000196</v>
       </c>
       <c r="E82" t="n">
-        <v>5.213992</v>
+        <v>8.784328</v>
       </c>
       <c r="F82" t="n">
         <v>0.000784</v>
@@ -27600,13 +27600,13 @@
         <v>1</v>
       </c>
       <c r="C83" t="n">
-        <v>20363</v>
+        <v>12951</v>
       </c>
       <c r="D83" t="n">
         <v>0.00014</v>
       </c>
       <c r="E83" t="n">
-        <v>3.18668</v>
+        <v>4.658919999999999</v>
       </c>
       <c r="F83" t="n">
         <v>0.00056</v>
@@ -27634,13 +27634,13 @@
         <v>1</v>
       </c>
       <c r="C84" t="n">
-        <v>20363</v>
+        <v>12951</v>
       </c>
       <c r="D84" t="n">
         <v>0.000276</v>
       </c>
       <c r="E84" t="n">
-        <v>6.282312</v>
+        <v>9.184728</v>
       </c>
       <c r="F84" t="n">
         <v>0.001104</v>
@@ -27668,13 +27668,13 @@
         <v>1</v>
       </c>
       <c r="C85" t="n">
-        <v>20363</v>
+        <v>12951</v>
       </c>
       <c r="D85" t="n">
         <v>0.002144</v>
       </c>
       <c r="E85" t="n">
-        <v>45.524</v>
+        <v>66.556</v>
       </c>
       <c r="F85" t="n">
         <v>0.008576</v>
@@ -27702,13 +27702,13 @@
         <v>1</v>
       </c>
       <c r="C86" t="n">
-        <v>48820</v>
+        <v>40976</v>
       </c>
       <c r="D86" t="n">
         <v>0.005824</v>
       </c>
       <c r="E86" t="n">
-        <v>286.5968</v>
+        <v>451.976</v>
       </c>
       <c r="F86" t="n">
         <v>0.023296</v>
@@ -27736,13 +27736,13 @@
         <v>1</v>
       </c>
       <c r="C87" t="n">
-        <v>26719</v>
+        <v>28422</v>
       </c>
       <c r="D87" t="n">
         <v>0.008588000000000002</v>
       </c>
       <c r="E87" t="n">
-        <v>230.2272</v>
+        <v>463.7472000000001</v>
       </c>
       <c r="F87" t="n">
         <v>0.03435200000000001</v>
@@ -27770,13 +27770,13 @@
         <v>1</v>
       </c>
       <c r="C88" t="n">
-        <v>55176</v>
+        <v>56447</v>
       </c>
       <c r="D88" t="n">
         <v>0.002068</v>
       </c>
       <c r="E88" t="n">
-        <v>4.465920000000001</v>
+        <v>8.2112</v>
       </c>
       <c r="F88" t="n">
         <v>0.008272000000000002</v>
@@ -27804,13 +27804,13 @@
         <v>1</v>
       </c>
       <c r="C89" t="n">
-        <v>20363</v>
+        <v>12951</v>
       </c>
       <c r="D89" t="n">
         <v>0.002084</v>
       </c>
       <c r="E89" t="n">
-        <v>1.82096</v>
+        <v>2.66224</v>
       </c>
       <c r="F89" t="n">
         <v>0.008336</v>
@@ -27839,7 +27839,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CK7"/>
+  <dimension ref="A1:CK12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28294,157 +28294,157 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="C2" t="n">
-        <v>229</v>
+        <v>155</v>
       </c>
       <c r="D2" t="n">
-        <v>16</v>
+        <v>159</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F2" t="n">
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>78</v>
+        <v>306</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>646</v>
       </c>
       <c r="J2" t="n">
-        <v>352</v>
+        <v>679</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1463</v>
       </c>
       <c r="L2" t="n">
-        <v>659</v>
+        <v>983</v>
       </c>
       <c r="M2" t="n">
-        <v>749</v>
+        <v>3104</v>
       </c>
       <c r="N2" t="n">
-        <v>1395</v>
+        <v>878</v>
       </c>
       <c r="O2" t="n">
-        <v>2571</v>
+        <v>886</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>4021</v>
+        <v>3391</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>3762</v>
+        <v>3267</v>
       </c>
       <c r="T2" t="n">
-        <v>1207</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>858</v>
+        <v>2436</v>
       </c>
       <c r="V2" t="n">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="W2" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="X2" t="n">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z2" t="n">
-        <v>105</v>
+        <v>180</v>
       </c>
       <c r="AA2" t="n">
-        <v>261</v>
+        <v>304</v>
       </c>
       <c r="AB2" t="n">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="AD2" t="n">
-        <v>184</v>
+        <v>26</v>
       </c>
       <c r="AE2" t="n">
-        <v>4057</v>
+        <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>2384</v>
+        <v>1547</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AH2" t="n">
-        <v>740</v>
+        <v>870</v>
       </c>
       <c r="AI2" t="n">
-        <v>1836</v>
+        <v>622</v>
       </c>
       <c r="AJ2" t="n">
-        <v>2161</v>
+        <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>853</v>
+        <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>422</v>
       </c>
       <c r="AM2" t="n">
-        <v>2725</v>
+        <v>3370</v>
       </c>
       <c r="AN2" t="n">
-        <v>1202</v>
+        <v>564</v>
       </c>
       <c r="AO2" t="n">
-        <v>771</v>
+        <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>469</v>
+        <v>369</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1480</v>
+        <v>333</v>
       </c>
       <c r="AR2" t="n">
-        <v>2417</v>
+        <v>3004</v>
       </c>
       <c r="AS2" t="n">
-        <v>1041</v>
+        <v>0</v>
       </c>
       <c r="AT2" t="n">
-        <v>561</v>
+        <v>2803</v>
       </c>
       <c r="AU2" t="n">
-        <v>3287</v>
+        <v>0</v>
       </c>
       <c r="AV2" t="n">
-        <v>0</v>
+        <v>3575</v>
       </c>
       <c r="AW2" t="n">
-        <v>656</v>
+        <v>163</v>
       </c>
       <c r="AX2" t="n">
-        <v>0</v>
+        <v>411</v>
       </c>
       <c r="AY2" t="n">
-        <v>1761</v>
+        <v>0</v>
       </c>
       <c r="AZ2" t="n">
-        <v>1330</v>
+        <v>23</v>
       </c>
       <c r="BA2" t="n">
         <v>0</v>
@@ -28563,157 +28563,157 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C3" t="n">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47</v>
+        <v>339</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="I3" t="n">
-        <v>718</v>
+        <v>578</v>
       </c>
       <c r="J3" t="n">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>3532</v>
+        <v>3326</v>
       </c>
       <c r="L3" t="n">
-        <v>1790</v>
+        <v>970</v>
       </c>
       <c r="M3" t="n">
-        <v>320</v>
+        <v>1079</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>561</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Q3" t="n">
-        <v>1839</v>
+        <v>1602</v>
       </c>
       <c r="R3" t="n">
-        <v>2330</v>
+        <v>1141</v>
       </c>
       <c r="S3" t="n">
-        <v>2030</v>
+        <v>183</v>
       </c>
       <c r="T3" t="n">
-        <v>201</v>
+        <v>1335</v>
       </c>
       <c r="U3" t="n">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>58</v>
+        <v>197</v>
       </c>
       <c r="W3" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="X3" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="AA3" t="n">
-        <v>332</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>277</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="AE3" t="n">
-        <v>543</v>
+        <v>2339</v>
       </c>
       <c r="AF3" t="n">
-        <v>1165</v>
+        <v>1883</v>
       </c>
       <c r="AG3" t="n">
-        <v>871</v>
+        <v>0</v>
       </c>
       <c r="AH3" t="n">
-        <v>1528</v>
+        <v>0</v>
       </c>
       <c r="AI3" t="n">
-        <v>2885</v>
+        <v>280</v>
       </c>
       <c r="AJ3" t="n">
         <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>2491</v>
+        <v>3187</v>
       </c>
       <c r="AL3" t="n">
-        <v>447</v>
+        <v>662</v>
       </c>
       <c r="AM3" t="n">
-        <v>3293</v>
+        <v>1051</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>1214</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="AP3" t="n">
-        <v>1410</v>
+        <v>350</v>
       </c>
       <c r="AQ3" t="n">
-        <v>2424</v>
+        <v>1304</v>
       </c>
       <c r="AR3" t="n">
-        <v>1215</v>
+        <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="AT3" t="n">
-        <v>1768</v>
+        <v>3521</v>
       </c>
       <c r="AU3" t="n">
-        <v>1638</v>
+        <v>0</v>
       </c>
       <c r="AV3" t="n">
         <v>0</v>
       </c>
       <c r="AW3" t="n">
-        <v>1176</v>
+        <v>564</v>
       </c>
       <c r="AX3" t="n">
-        <v>395</v>
+        <v>576</v>
       </c>
       <c r="AY3" t="n">
-        <v>2173</v>
+        <v>0</v>
       </c>
       <c r="AZ3" t="n">
-        <v>471</v>
+        <v>0</v>
       </c>
       <c r="BA3" t="n">
         <v>0</v>
@@ -28832,46 +28832,46 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>289</v>
+        <v>42</v>
       </c>
       <c r="E4" t="n">
-        <v>133</v>
+        <v>11</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="G4" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>209</v>
+        <v>102</v>
       </c>
       <c r="I4" t="n">
-        <v>912</v>
+        <v>489</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="K4" t="n">
-        <v>2398</v>
+        <v>2286</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>2422</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1988</v>
       </c>
       <c r="N4" t="n">
-        <v>319</v>
+        <v>1234</v>
       </c>
       <c r="O4" t="n">
-        <v>2974</v>
+        <v>2375</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -28880,22 +28880,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>2429</v>
+        <v>1896</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>688</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>2005</v>
       </c>
       <c r="V4" t="n">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="W4" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -28904,67 +28904,67 @@
         <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>155</v>
+        <v>77</v>
       </c>
       <c r="AA4" t="n">
-        <v>344</v>
+        <v>129</v>
       </c>
       <c r="AB4" t="n">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="AC4" t="n">
-        <v>282</v>
+        <v>120</v>
       </c>
       <c r="AD4" t="n">
-        <v>116</v>
+        <v>308</v>
       </c>
       <c r="AE4" t="n">
-        <v>1292</v>
+        <v>0</v>
       </c>
       <c r="AF4" t="n">
-        <v>1948</v>
+        <v>296</v>
       </c>
       <c r="AG4" t="n">
-        <v>1734</v>
+        <v>1334</v>
       </c>
       <c r="AH4" t="n">
-        <v>460</v>
+        <v>1135</v>
       </c>
       <c r="AI4" t="n">
-        <v>4229</v>
+        <v>4790</v>
       </c>
       <c r="AJ4" t="n">
-        <v>2260</v>
+        <v>973</v>
       </c>
       <c r="AK4" t="n">
-        <v>161</v>
+        <v>4452</v>
       </c>
       <c r="AL4" t="n">
-        <v>299</v>
+        <v>0</v>
       </c>
       <c r="AM4" t="n">
-        <v>2469</v>
+        <v>1121</v>
       </c>
       <c r="AN4" t="n">
-        <v>1420</v>
+        <v>0</v>
       </c>
       <c r="AO4" t="n">
-        <v>35</v>
+        <v>307</v>
       </c>
       <c r="AP4" t="n">
-        <v>1549</v>
+        <v>621</v>
       </c>
       <c r="AQ4" t="n">
-        <v>502</v>
+        <v>933</v>
       </c>
       <c r="AR4" t="n">
-        <v>452</v>
+        <v>418</v>
       </c>
       <c r="AS4" t="n">
-        <v>229</v>
+        <v>0</v>
       </c>
       <c r="AT4" t="n">
-        <v>3449</v>
+        <v>0</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -28973,16 +28973,16 @@
         <v>0</v>
       </c>
       <c r="AW4" t="n">
-        <v>870</v>
+        <v>131</v>
       </c>
       <c r="AX4" t="n">
-        <v>480</v>
+        <v>57</v>
       </c>
       <c r="AY4" t="n">
-        <v>1912</v>
+        <v>1918</v>
       </c>
       <c r="AZ4" t="n">
-        <v>452</v>
+        <v>757</v>
       </c>
       <c r="BA4" t="n">
         <v>0</v>
@@ -29101,157 +29101,157 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>143</v>
+        <v>60</v>
       </c>
       <c r="C5" t="n">
-        <v>41</v>
+        <v>184</v>
       </c>
       <c r="D5" t="n">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="E5" t="n">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>335</v>
+        <v>280</v>
       </c>
       <c r="G5" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>110</v>
+        <v>347</v>
       </c>
       <c r="I5" t="n">
-        <v>814</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>266</v>
+        <v>501</v>
       </c>
       <c r="K5" t="n">
-        <v>616</v>
+        <v>1509</v>
       </c>
       <c r="L5" t="n">
-        <v>3713</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>348</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="O5" t="n">
-        <v>2402</v>
+        <v>1796</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>1758</v>
       </c>
       <c r="Q5" t="n">
-        <v>2635</v>
+        <v>1281</v>
       </c>
       <c r="R5" t="n">
-        <v>2793</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>1545</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>2196</v>
       </c>
       <c r="U5" t="n">
-        <v>818</v>
+        <v>2362</v>
       </c>
       <c r="V5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
+        <v>5</v>
+      </c>
+      <c r="X5" t="n">
         <v>55</v>
       </c>
-      <c r="X5" t="n">
-        <v>92</v>
-      </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="Z5" t="n">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="AA5" t="n">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="AC5" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="AE5" t="n">
-        <v>521</v>
+        <v>474</v>
       </c>
       <c r="AF5" t="n">
-        <v>2058</v>
+        <v>1788</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>2263</v>
       </c>
       <c r="AH5" t="n">
-        <v>1142</v>
+        <v>4</v>
       </c>
       <c r="AI5" t="n">
-        <v>3866</v>
+        <v>1088</v>
       </c>
       <c r="AJ5" t="n">
-        <v>873</v>
+        <v>488</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>1664</v>
       </c>
       <c r="AL5" t="n">
-        <v>1011</v>
+        <v>1104</v>
       </c>
       <c r="AM5" t="n">
-        <v>1145</v>
+        <v>2167</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>778</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="AP5" t="n">
-        <v>995</v>
+        <v>1181</v>
       </c>
       <c r="AQ5" t="n">
-        <v>378</v>
+        <v>1524</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>187</v>
+        <v>48</v>
       </c>
       <c r="AT5" t="n">
-        <v>1208</v>
+        <v>762</v>
       </c>
       <c r="AU5" t="n">
-        <v>0</v>
+        <v>2899</v>
       </c>
       <c r="AV5" t="n">
-        <v>3336</v>
+        <v>701</v>
       </c>
       <c r="AW5" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="AX5" t="n">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="AY5" t="n">
-        <v>3359</v>
+        <v>919</v>
       </c>
       <c r="AZ5" t="n">
-        <v>849</v>
+        <v>0</v>
       </c>
       <c r="BA5" t="n">
         <v>0</v>
@@ -29370,154 +29370,154 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C6" t="n">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>64</v>
+        <v>159</v>
       </c>
       <c r="E6" t="n">
+        <v>247</v>
+      </c>
+      <c r="F6" t="n">
+        <v>276</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>179</v>
+      </c>
+      <c r="I6" t="n">
+        <v>744</v>
+      </c>
+      <c r="J6" t="n">
+        <v>418</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>306</v>
+      </c>
+      <c r="M6" t="n">
+        <v>557</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>251</v>
+      </c>
+      <c r="P6" t="n">
+        <v>58</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3557</v>
+      </c>
+      <c r="R6" t="n">
+        <v>346</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2444</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>52</v>
+      </c>
+      <c r="W6" t="n">
+        <v>54</v>
+      </c>
+      <c r="X6" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>46</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>92</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>171</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>127</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>143</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>192</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>288</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>1607</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>196</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>737</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>120</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>495</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>1139</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>1997</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>1184</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>1017</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>209</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>3088</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>280</v>
+      </c>
+      <c r="AX6" t="n">
         <v>9</v>
       </c>
-      <c r="F6" t="n">
-        <v>81</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>207</v>
-      </c>
-      <c r="I6" t="n">
-        <v>379</v>
-      </c>
-      <c r="J6" t="n">
-        <v>207</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1722</v>
-      </c>
-      <c r="L6" t="n">
-        <v>103</v>
-      </c>
-      <c r="M6" t="n">
-        <v>620</v>
-      </c>
-      <c r="N6" t="n">
-        <v>367</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1544</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1793</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>5425</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1860</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>16</v>
-      </c>
-      <c r="W6" t="n">
-        <v>39</v>
-      </c>
-      <c r="X6" t="n">
-        <v>63</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>79</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>437</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>163</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>141</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>2697</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>646</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>2025</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>2624</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>3697</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>593</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>1320</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>431</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>1374</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>1095</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>3035</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>3907</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>626</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>157</v>
-      </c>
       <c r="AY6" t="n">
-        <v>1593</v>
+        <v>151</v>
       </c>
       <c r="AZ6" t="n">
         <v>0</v>
@@ -29639,267 +29639,1612 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C7" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="E7" t="n">
+        <v>114</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>154</v>
+      </c>
+      <c r="H7" t="n">
+        <v>274</v>
+      </c>
+      <c r="I7" t="n">
+        <v>191</v>
+      </c>
+      <c r="J7" t="n">
+        <v>433</v>
+      </c>
+      <c r="K7" t="n">
+        <v>875</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2508</v>
+      </c>
+      <c r="M7" t="n">
+        <v>451</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>3355</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>499</v>
+      </c>
+      <c r="R7" t="n">
+        <v>532</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1715</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2504</v>
+      </c>
+      <c r="V7" t="n">
+        <v>67</v>
+      </c>
+      <c r="W7" t="n">
+        <v>45</v>
+      </c>
+      <c r="X7" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>122</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>88</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>177</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>97</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>210</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>3426</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>1030</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>268</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>260</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>2839</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>5949</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>1235</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>130</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>2398</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>1570</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>1718</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>920</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>1491</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>158</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>57</v>
+      </c>
+      <c r="C8" t="n">
+        <v>112</v>
+      </c>
+      <c r="D8" t="n">
+        <v>90</v>
+      </c>
+      <c r="E8" t="n">
+        <v>144</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>38</v>
       </c>
-      <c r="F7" t="n">
-        <v>257</v>
-      </c>
-      <c r="G7" t="n">
-        <v>87</v>
-      </c>
-      <c r="H7" t="n">
-        <v>49</v>
-      </c>
-      <c r="I7" t="n">
-        <v>175</v>
-      </c>
-      <c r="J7" t="n">
-        <v>536</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1790</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>3195</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1491</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>117</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1160</v>
-      </c>
-      <c r="V7" t="n">
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>24</v>
+      </c>
+      <c r="K8" t="n">
+        <v>476</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3096</v>
+      </c>
+      <c r="M8" t="n">
+        <v>609</v>
+      </c>
+      <c r="N8" t="n">
+        <v>226</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2929</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1034</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>6</v>
+      </c>
+      <c r="R8" t="n">
+        <v>177</v>
+      </c>
+      <c r="S8" t="n">
+        <v>7099</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>56</v>
+      </c>
+      <c r="W8" t="n">
+        <v>56</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>263</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>97</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>56</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>255</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>1458</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>899</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>1566</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>5265</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>1131</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>1155</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>335</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>541</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>521</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>1439</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2980</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>2519</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>2861</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>446</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>1995</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>1438</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>109</v>
+      </c>
+      <c r="C9" t="n">
+        <v>60</v>
+      </c>
+      <c r="D9" t="n">
+        <v>25</v>
+      </c>
+      <c r="E9" t="n">
+        <v>56</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>207</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1712</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3194</v>
+      </c>
+      <c r="N9" t="n">
+        <v>733</v>
+      </c>
+      <c r="O9" t="n">
+        <v>599</v>
+      </c>
+      <c r="P9" t="n">
+        <v>178</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1524</v>
+      </c>
+      <c r="S9" t="n">
+        <v>86</v>
+      </c>
+      <c r="T9" t="n">
+        <v>3561</v>
+      </c>
+      <c r="U9" t="n">
+        <v>975</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>106</v>
+      </c>
+      <c r="X9" t="n">
+        <v>31</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>123</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>38</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>3631</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>1304</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>559</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>1632</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>951</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>1479</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>450</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>366</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>997</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>575</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>318</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>1446</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>2175</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>329</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>431</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>1968</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>27</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>78</v>
+      </c>
+      <c r="E10" t="n">
+        <v>115</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>206</v>
+      </c>
+      <c r="I10" t="n">
+        <v>114</v>
+      </c>
+      <c r="J10" t="n">
+        <v>518</v>
+      </c>
+      <c r="K10" t="n">
+        <v>817</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2461</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2215</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2590</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2741</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1202</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1472</v>
+      </c>
+      <c r="V10" t="n">
+        <v>187</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>77</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>133</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>191</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>432</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>499</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>1181</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>1414</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>3068</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>2575</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>1210</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>7007</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>467</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>334</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>973</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>631</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>263</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>1919</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>2356</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>384</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>334</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>145</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>739</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>54</v>
+      </c>
+      <c r="D11" t="n">
+        <v>95</v>
+      </c>
+      <c r="E11" t="n">
+        <v>80</v>
+      </c>
+      <c r="F11" t="n">
+        <v>436</v>
+      </c>
+      <c r="G11" t="n">
+        <v>108</v>
+      </c>
+      <c r="H11" t="n">
+        <v>263</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>84</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>263</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1334</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2064</v>
+      </c>
+      <c r="P11" t="n">
+        <v>335</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2566</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1487</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5375</v>
+      </c>
+      <c r="T11" t="n">
+        <v>429</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1647</v>
+      </c>
+      <c r="V11" t="n">
+        <v>108</v>
+      </c>
+      <c r="W11" t="n">
         <v>63</v>
       </c>
-      <c r="W7" t="n">
-        <v>99</v>
-      </c>
-      <c r="X7" t="n">
-        <v>76</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>66</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>192</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>66</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>172</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>107</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>1679</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>1316</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>554</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>1159</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>609</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>4125</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>366</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>328</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>476</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>824</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>1087</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>3460</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>2408</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>582</v>
-      </c>
-      <c r="AX7" t="n">
+      <c r="X11" t="n">
+        <v>84</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>440</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>171</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>2784</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>959</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>513</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>2166</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>1500</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>78</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>4122</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>624</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>239</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>246</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>2779</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>548</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>1067</v>
+      </c>
+      <c r="AX11" t="n">
         <v>243</v>
       </c>
-      <c r="AY7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK7" t="n">
+      <c r="AY11" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>68</v>
+      </c>
+      <c r="C12" t="n">
+        <v>65</v>
+      </c>
+      <c r="D12" t="n">
+        <v>105</v>
+      </c>
+      <c r="E12" t="n">
+        <v>187</v>
+      </c>
+      <c r="F12" t="n">
+        <v>271</v>
+      </c>
+      <c r="G12" t="n">
+        <v>39</v>
+      </c>
+      <c r="H12" t="n">
+        <v>144</v>
+      </c>
+      <c r="I12" t="n">
+        <v>535</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3343</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2263</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1844</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1266</v>
+      </c>
+      <c r="O12" t="n">
+        <v>3862</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1548</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4390</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1676</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1346</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>25</v>
+      </c>
+      <c r="X12" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>227</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>356</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>2798</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>2564</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>1264</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>3928</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>1079</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>778</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>1641</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>2191</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>641</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>1552</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>547</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>1988</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>1128</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>2317</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>3928</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>512</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>255</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>1556</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>1071</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -29914,7 +31259,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CK7"/>
+  <dimension ref="A1:CK12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30369,157 +31714,157 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10.25</v>
+        <v>4.375</v>
       </c>
       <c r="C2" t="n">
-        <v>28.625</v>
+        <v>19.375</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>19.875</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F2" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>9.75</v>
+        <v>38.25</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>80.75</v>
       </c>
       <c r="J2" t="n">
-        <v>44</v>
+        <v>84.875</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>182.875</v>
       </c>
       <c r="L2" t="n">
-        <v>82.375</v>
+        <v>122.875</v>
       </c>
       <c r="M2" t="n">
-        <v>93.625</v>
+        <v>388</v>
       </c>
       <c r="N2" t="n">
-        <v>174.375</v>
+        <v>109.75</v>
       </c>
       <c r="O2" t="n">
-        <v>321.375</v>
+        <v>110.75</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>502.625</v>
+        <v>423.875</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>470.25</v>
+        <v>408.375</v>
       </c>
       <c r="T2" t="n">
-        <v>150.875</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>107.25</v>
+        <v>304.5</v>
       </c>
       <c r="V2" t="n">
-        <v>19.375</v>
+        <v>17.125</v>
       </c>
       <c r="W2" t="n">
-        <v>1.875</v>
+        <v>2.75</v>
       </c>
       <c r="X2" t="n">
-        <v>14.625</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.25</v>
+        <v>1.375</v>
       </c>
       <c r="Z2" t="n">
-        <v>13.125</v>
+        <v>22.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>32.625</v>
+        <v>38</v>
       </c>
       <c r="AB2" t="n">
-        <v>24.625</v>
+        <v>27.375</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>8.25</v>
       </c>
       <c r="AD2" t="n">
-        <v>23</v>
+        <v>3.25</v>
       </c>
       <c r="AE2" t="n">
-        <v>507.125</v>
+        <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>298</v>
+        <v>193.375</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AH2" t="n">
-        <v>92.5</v>
+        <v>108.75</v>
       </c>
       <c r="AI2" t="n">
-        <v>229.5</v>
+        <v>77.75</v>
       </c>
       <c r="AJ2" t="n">
-        <v>270.125</v>
+        <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>106.625</v>
+        <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>52.75</v>
       </c>
       <c r="AM2" t="n">
-        <v>340.625</v>
+        <v>421.25</v>
       </c>
       <c r="AN2" t="n">
-        <v>150.25</v>
+        <v>70.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>96.375</v>
+        <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>58.625</v>
+        <v>46.125</v>
       </c>
       <c r="AQ2" t="n">
-        <v>185</v>
+        <v>41.625</v>
       </c>
       <c r="AR2" t="n">
-        <v>302.125</v>
+        <v>375.5</v>
       </c>
       <c r="AS2" t="n">
-        <v>130.125</v>
+        <v>0</v>
       </c>
       <c r="AT2" t="n">
-        <v>70.125</v>
+        <v>350.375</v>
       </c>
       <c r="AU2" t="n">
-        <v>410.875</v>
+        <v>0</v>
       </c>
       <c r="AV2" t="n">
-        <v>0</v>
+        <v>446.875</v>
       </c>
       <c r="AW2" t="n">
-        <v>82</v>
+        <v>20.375</v>
       </c>
       <c r="AX2" t="n">
-        <v>0</v>
+        <v>51.375</v>
       </c>
       <c r="AY2" t="n">
-        <v>220.125</v>
+        <v>0</v>
       </c>
       <c r="AZ2" t="n">
-        <v>166.25</v>
+        <v>2.875</v>
       </c>
       <c r="BA2" t="n">
         <v>0</v>
@@ -30638,157 +31983,157 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9.9375</v>
+        <v>10.125</v>
       </c>
       <c r="C3" t="n">
-        <v>41.8125</v>
+        <v>37.125</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>23.4375</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>8.8125</v>
+        <v>63.5625</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>21.5625</v>
       </c>
       <c r="I3" t="n">
-        <v>134.625</v>
+        <v>108.375</v>
       </c>
       <c r="J3" t="n">
-        <v>17.0625</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>662.25</v>
+        <v>623.625</v>
       </c>
       <c r="L3" t="n">
-        <v>335.625</v>
+        <v>181.875</v>
       </c>
       <c r="M3" t="n">
-        <v>60</v>
+        <v>202.3125</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>105.1875</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>183.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>344.8125</v>
+        <v>300.375</v>
       </c>
       <c r="R3" t="n">
-        <v>436.875</v>
+        <v>213.9375</v>
       </c>
       <c r="S3" t="n">
-        <v>380.625</v>
+        <v>34.3125</v>
       </c>
       <c r="T3" t="n">
-        <v>37.6875</v>
+        <v>250.3125</v>
       </c>
       <c r="U3" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>10.875</v>
+        <v>36.9375</v>
       </c>
       <c r="W3" t="n">
-        <v>6.375</v>
+        <v>4.6875</v>
       </c>
       <c r="X3" t="n">
-        <v>10.875</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>14.625</v>
+        <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>14.4375</v>
+        <v>21.1875</v>
       </c>
       <c r="AA3" t="n">
-        <v>62.25</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>51.9375</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>15.1875</v>
+        <v>23.25</v>
       </c>
       <c r="AE3" t="n">
-        <v>101.8125</v>
+        <v>438.5625</v>
       </c>
       <c r="AF3" t="n">
-        <v>218.4375</v>
+        <v>353.0625</v>
       </c>
       <c r="AG3" t="n">
-        <v>163.3125</v>
+        <v>0</v>
       </c>
       <c r="AH3" t="n">
-        <v>286.5</v>
+        <v>0</v>
       </c>
       <c r="AI3" t="n">
-        <v>540.9375</v>
+        <v>52.5</v>
       </c>
       <c r="AJ3" t="n">
         <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>467.0625</v>
+        <v>597.5625</v>
       </c>
       <c r="AL3" t="n">
-        <v>83.8125</v>
+        <v>124.125</v>
       </c>
       <c r="AM3" t="n">
-        <v>617.4375</v>
+        <v>197.0625</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>227.625</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>27.1875</v>
       </c>
       <c r="AP3" t="n">
-        <v>264.375</v>
+        <v>65.625</v>
       </c>
       <c r="AQ3" t="n">
-        <v>454.5</v>
+        <v>244.5</v>
       </c>
       <c r="AR3" t="n">
-        <v>227.8125</v>
+        <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>15.1875</v>
+        <v>0</v>
       </c>
       <c r="AT3" t="n">
-        <v>331.5</v>
+        <v>660.1875</v>
       </c>
       <c r="AU3" t="n">
-        <v>307.125</v>
+        <v>0</v>
       </c>
       <c r="AV3" t="n">
         <v>0</v>
       </c>
       <c r="AW3" t="n">
-        <v>220.5</v>
+        <v>105.75</v>
       </c>
       <c r="AX3" t="n">
-        <v>74.0625</v>
+        <v>108</v>
       </c>
       <c r="AY3" t="n">
-        <v>407.4375</v>
+        <v>0</v>
       </c>
       <c r="AZ3" t="n">
-        <v>88.3125</v>
+        <v>0</v>
       </c>
       <c r="BA3" t="n">
         <v>0</v>
@@ -30907,46 +32252,46 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10.5</v>
+        <v>18.15625</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>63.21875</v>
+        <v>9.1875</v>
       </c>
       <c r="E4" t="n">
-        <v>29.09375</v>
+        <v>2.40625</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>18.8125</v>
       </c>
       <c r="G4" t="n">
-        <v>34.34375</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>45.71875</v>
+        <v>22.3125</v>
       </c>
       <c r="I4" t="n">
-        <v>199.5</v>
+        <v>106.96875</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="K4" t="n">
-        <v>524.5625</v>
+        <v>500.0625</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>529.8125</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>434.875</v>
       </c>
       <c r="N4" t="n">
-        <v>69.78125</v>
+        <v>269.9375</v>
       </c>
       <c r="O4" t="n">
-        <v>650.5625</v>
+        <v>519.53125</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -30955,22 +32300,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>531.34375</v>
+        <v>414.75</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>150.5</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>438.59375</v>
       </c>
       <c r="V4" t="n">
-        <v>15.09375</v>
+        <v>17.9375</v>
       </c>
       <c r="W4" t="n">
-        <v>6.34375</v>
+        <v>2.40625</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -30979,67 +32324,67 @@
         <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>33.90625</v>
+        <v>16.84375</v>
       </c>
       <c r="AA4" t="n">
-        <v>75.25</v>
+        <v>28.21875</v>
       </c>
       <c r="AB4" t="n">
-        <v>13.125</v>
+        <v>18.8125</v>
       </c>
       <c r="AC4" t="n">
-        <v>61.6875</v>
+        <v>26.25</v>
       </c>
       <c r="AD4" t="n">
-        <v>25.375</v>
+        <v>67.375</v>
       </c>
       <c r="AE4" t="n">
-        <v>282.625</v>
+        <v>0</v>
       </c>
       <c r="AF4" t="n">
-        <v>426.125</v>
+        <v>64.75</v>
       </c>
       <c r="AG4" t="n">
-        <v>379.3125</v>
+        <v>291.8125</v>
       </c>
       <c r="AH4" t="n">
-        <v>100.625</v>
+        <v>248.28125</v>
       </c>
       <c r="AI4" t="n">
-        <v>925.09375</v>
+        <v>1047.8125</v>
       </c>
       <c r="AJ4" t="n">
-        <v>494.375</v>
+        <v>212.84375</v>
       </c>
       <c r="AK4" t="n">
-        <v>35.21875</v>
+        <v>973.875</v>
       </c>
       <c r="AL4" t="n">
-        <v>65.40625</v>
+        <v>0</v>
       </c>
       <c r="AM4" t="n">
-        <v>540.09375</v>
+        <v>245.21875</v>
       </c>
       <c r="AN4" t="n">
-        <v>310.625</v>
+        <v>0</v>
       </c>
       <c r="AO4" t="n">
-        <v>7.65625</v>
+        <v>67.15625</v>
       </c>
       <c r="AP4" t="n">
-        <v>338.84375</v>
+        <v>135.84375</v>
       </c>
       <c r="AQ4" t="n">
-        <v>109.8125</v>
+        <v>204.09375</v>
       </c>
       <c r="AR4" t="n">
-        <v>98.875</v>
+        <v>91.4375</v>
       </c>
       <c r="AS4" t="n">
-        <v>50.09375</v>
+        <v>0</v>
       </c>
       <c r="AT4" t="n">
-        <v>754.46875</v>
+        <v>0</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -31048,16 +32393,16 @@
         <v>0</v>
       </c>
       <c r="AW4" t="n">
-        <v>190.3125</v>
+        <v>28.65625</v>
       </c>
       <c r="AX4" t="n">
-        <v>105</v>
+        <v>12.46875</v>
       </c>
       <c r="AY4" t="n">
-        <v>418.25</v>
+        <v>419.5625</v>
       </c>
       <c r="AZ4" t="n">
-        <v>98.875</v>
+        <v>165.59375</v>
       </c>
       <c r="BA4" t="n">
         <v>0</v>
@@ -31176,157 +32521,157 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>33.515625</v>
+        <v>14.0625</v>
       </c>
       <c r="C5" t="n">
-        <v>9.609375</v>
+        <v>43.125</v>
       </c>
       <c r="D5" t="n">
-        <v>30.234375</v>
+        <v>23.90625</v>
       </c>
       <c r="E5" t="n">
-        <v>28.59375</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>78.515625</v>
+        <v>65.625</v>
       </c>
       <c r="G5" t="n">
-        <v>4.921875</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>25.78125</v>
+        <v>81.328125</v>
       </c>
       <c r="I5" t="n">
-        <v>190.78125</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>62.34375</v>
+        <v>117.421875</v>
       </c>
       <c r="K5" t="n">
-        <v>144.375</v>
+        <v>353.671875</v>
       </c>
       <c r="L5" t="n">
-        <v>870.234375</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>81.5625</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>56.953125</v>
       </c>
       <c r="O5" t="n">
-        <v>562.96875</v>
+        <v>420.9375</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>412.03125</v>
       </c>
       <c r="Q5" t="n">
-        <v>617.578125</v>
+        <v>300.234375</v>
       </c>
       <c r="R5" t="n">
-        <v>654.609375</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>362.109375</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>514.6875</v>
       </c>
       <c r="U5" t="n">
-        <v>191.71875</v>
+        <v>553.59375</v>
       </c>
       <c r="V5" t="n">
-        <v>0.703125</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
+        <v>1.171875</v>
+      </c>
+      <c r="X5" t="n">
         <v>12.890625</v>
       </c>
-      <c r="X5" t="n">
-        <v>21.5625</v>
-      </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>12.421875</v>
       </c>
       <c r="Z5" t="n">
-        <v>13.828125</v>
+        <v>8.671875</v>
       </c>
       <c r="AA5" t="n">
-        <v>34.453125</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>14.765625</v>
+        <v>11.71875</v>
       </c>
       <c r="AC5" t="n">
-        <v>14.0625</v>
+        <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>47.109375</v>
       </c>
       <c r="AE5" t="n">
-        <v>122.109375</v>
+        <v>111.09375</v>
       </c>
       <c r="AF5" t="n">
-        <v>482.34375</v>
+        <v>419.0625</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>530.390625</v>
       </c>
       <c r="AH5" t="n">
-        <v>267.65625</v>
+        <v>0.9375</v>
       </c>
       <c r="AI5" t="n">
-        <v>906.09375</v>
+        <v>255</v>
       </c>
       <c r="AJ5" t="n">
-        <v>204.609375</v>
+        <v>114.375</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>390</v>
       </c>
       <c r="AL5" t="n">
-        <v>236.953125</v>
+        <v>258.75</v>
       </c>
       <c r="AM5" t="n">
-        <v>268.359375</v>
+        <v>507.890625</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>182.34375</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>137.109375</v>
       </c>
       <c r="AP5" t="n">
-        <v>233.203125</v>
+        <v>276.796875</v>
       </c>
       <c r="AQ5" t="n">
-        <v>88.59375</v>
+        <v>357.1875</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>43.828125</v>
+        <v>11.25</v>
       </c>
       <c r="AT5" t="n">
-        <v>283.125</v>
+        <v>178.59375</v>
       </c>
       <c r="AU5" t="n">
-        <v>0</v>
+        <v>679.453125</v>
       </c>
       <c r="AV5" t="n">
-        <v>781.875</v>
+        <v>164.296875</v>
       </c>
       <c r="AW5" t="n">
-        <v>0</v>
+        <v>19.21875</v>
       </c>
       <c r="AX5" t="n">
-        <v>36.5625</v>
+        <v>0</v>
       </c>
       <c r="AY5" t="n">
-        <v>787.265625</v>
+        <v>215.390625</v>
       </c>
       <c r="AZ5" t="n">
-        <v>198.984375</v>
+        <v>0</v>
       </c>
       <c r="BA5" t="n">
         <v>0</v>
@@ -31445,154 +32790,154 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>2.6640625</v>
       </c>
       <c r="C6" t="n">
-        <v>27.125</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>15.5</v>
+        <v>38.5078125</v>
       </c>
       <c r="E6" t="n">
+        <v>59.8203125</v>
+      </c>
+      <c r="F6" t="n">
+        <v>66.84375</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>43.3515625</v>
+      </c>
+      <c r="I6" t="n">
+        <v>180.1875</v>
+      </c>
+      <c r="J6" t="n">
+        <v>101.234375</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>74.109375</v>
+      </c>
+      <c r="M6" t="n">
+        <v>134.8984375</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>60.7890625</v>
+      </c>
+      <c r="P6" t="n">
+        <v>14.046875</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>861.4609375</v>
+      </c>
+      <c r="R6" t="n">
+        <v>83.796875</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>591.90625</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>12.59375</v>
+      </c>
+      <c r="W6" t="n">
+        <v>13.078125</v>
+      </c>
+      <c r="X6" t="n">
+        <v>29.0625</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>11.140625</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>22.28125</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>41.4140625</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>30.7578125</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>34.6328125</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>69.75</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>389.1953125</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>47.46875</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>178.4921875</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>29.0625</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>119.8828125</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>275.8515625</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>483.6484375</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>286.75</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>246.3046875</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>50.6171875</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>747.875</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>67.8125</v>
+      </c>
+      <c r="AX6" t="n">
         <v>2.1796875</v>
       </c>
-      <c r="F6" t="n">
-        <v>19.6171875</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>50.1328125</v>
-      </c>
-      <c r="I6" t="n">
-        <v>91.7890625</v>
-      </c>
-      <c r="J6" t="n">
-        <v>50.1328125</v>
-      </c>
-      <c r="K6" t="n">
-        <v>417.046875</v>
-      </c>
-      <c r="L6" t="n">
-        <v>24.9453125</v>
-      </c>
-      <c r="M6" t="n">
-        <v>150.15625</v>
-      </c>
-      <c r="N6" t="n">
-        <v>88.8828125</v>
-      </c>
-      <c r="O6" t="n">
-        <v>373.9375</v>
-      </c>
-      <c r="P6" t="n">
-        <v>434.2421875</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1313.8671875</v>
-      </c>
-      <c r="T6" t="n">
-        <v>450.46875</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>3.875</v>
-      </c>
-      <c r="W6" t="n">
-        <v>9.4453125</v>
-      </c>
-      <c r="X6" t="n">
-        <v>15.2578125</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>6.296875</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>19.1328125</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>105.8359375</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>39.4765625</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>34.1484375</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>653.1796875</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>156.453125</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>490.4296875</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>635.5</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>895.3671875</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>143.6171875</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>319.6875</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>104.3828125</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>332.765625</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>265.1953125</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>735.0390625</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>946.2265625</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>151.609375</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>38.0234375</v>
-      </c>
       <c r="AY6" t="n">
-        <v>385.8046875</v>
+        <v>36.5703125</v>
       </c>
       <c r="AZ6" t="n">
         <v>0</v>
@@ -31714,157 +33059,157 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>6.64453125</v>
       </c>
       <c r="C7" t="n">
-        <v>23.1328125</v>
+        <v>22.88671875</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>27.0703125</v>
       </c>
       <c r="E7" t="n">
-        <v>9.3515625</v>
+        <v>28.0546875</v>
       </c>
       <c r="F7" t="n">
-        <v>63.24609375</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>21.41015625</v>
+        <v>37.8984375</v>
       </c>
       <c r="H7" t="n">
-        <v>12.05859375</v>
+        <v>67.4296875</v>
       </c>
       <c r="I7" t="n">
-        <v>43.06640625</v>
+        <v>47.00390625</v>
       </c>
       <c r="J7" t="n">
-        <v>131.90625</v>
+        <v>106.55859375</v>
       </c>
       <c r="K7" t="n">
-        <v>440.5078125</v>
+        <v>215.33203125</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>617.203125</v>
       </c>
       <c r="M7" t="n">
-        <v>786.26953125</v>
+        <v>110.98828125</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>825.64453125</v>
       </c>
       <c r="P7" t="n">
-        <v>492.92578125</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
+        <v>122.80078125</v>
+      </c>
+      <c r="R7" t="n">
+        <v>130.921875</v>
+      </c>
+      <c r="S7" t="n">
+        <v>422.05078125</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>616.21875</v>
+      </c>
+      <c r="V7" t="n">
+        <v>16.48828125</v>
+      </c>
+      <c r="W7" t="n">
+        <v>11.07421875</v>
+      </c>
+      <c r="X7" t="n">
+        <v>6.64453125</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>30.0234375</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>21.65625</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>43.55859375</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>23.87109375</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>51.6796875</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>843.1171875</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>253.4765625</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>65.953125</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>63.984375</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>698.66015625</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>5.16796875</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>1464.01171875</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>303.92578125</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>31.9921875</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>590.1328125</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>386.3671875</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>422.7890625</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>226.40625</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>0.4921875</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY7" t="n">
         <v>366.92578125</v>
       </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>28.79296875</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>285.46875</v>
-      </c>
-      <c r="V7" t="n">
-        <v>15.50390625</v>
-      </c>
-      <c r="W7" t="n">
-        <v>24.36328125</v>
-      </c>
-      <c r="X7" t="n">
-        <v>18.703125</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>16.2421875</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>47.25</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>16.2421875</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>42.328125</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>26.33203125</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>413.19140625</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>323.859375</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>136.3359375</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>285.22265625</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>149.87109375</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>1015.13671875</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>90.0703125</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>80.71875</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>117.140625</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>202.78125</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>267.50390625</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>851.484375</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>592.59375</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>143.2265625</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>59.80078125</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>0</v>
-      </c>
       <c r="AZ7" t="n">
-        <v>0</v>
+        <v>38.8828125</v>
       </c>
       <c r="BA7" t="n">
         <v>0</v>
@@ -31975,6 +33320,1351 @@
         <v>0</v>
       </c>
       <c r="CK7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>14.138671875</v>
+      </c>
+      <c r="C8" t="n">
+        <v>27.78125</v>
+      </c>
+      <c r="D8" t="n">
+        <v>22.32421875</v>
+      </c>
+      <c r="E8" t="n">
+        <v>35.71875</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>9.42578125</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>5.953125</v>
+      </c>
+      <c r="K8" t="n">
+        <v>118.0703125</v>
+      </c>
+      <c r="L8" t="n">
+        <v>767.953125</v>
+      </c>
+      <c r="M8" t="n">
+        <v>151.060546875</v>
+      </c>
+      <c r="N8" t="n">
+        <v>56.05859375</v>
+      </c>
+      <c r="O8" t="n">
+        <v>726.529296875</v>
+      </c>
+      <c r="P8" t="n">
+        <v>256.48046875</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.48828125</v>
+      </c>
+      <c r="R8" t="n">
+        <v>43.904296875</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1760.884765625</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>13.890625</v>
+      </c>
+      <c r="W8" t="n">
+        <v>13.890625</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>10.9140625</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>65.236328125</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>24.060546875</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>13.890625</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>63.251953125</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>361.65234375</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>222.994140625</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>388.44140625</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>1305.966796875</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>280.541015625</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>286.494140625</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>83.095703125</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>134.193359375</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>129.232421875</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>356.939453125</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>739.1796875</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>624.830078125</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>709.662109375</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>10.169921875</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>110.62890625</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>494.853515625</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>356.69140625</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>27.1435546875</v>
+      </c>
+      <c r="C9" t="n">
+        <v>14.94140625</v>
+      </c>
+      <c r="D9" t="n">
+        <v>6.2255859375</v>
+      </c>
+      <c r="E9" t="n">
+        <v>13.9453125</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>51.5478515625</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>426.328125</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>795.380859375</v>
+      </c>
+      <c r="N9" t="n">
+        <v>182.5341796875</v>
+      </c>
+      <c r="O9" t="n">
+        <v>149.1650390625</v>
+      </c>
+      <c r="P9" t="n">
+        <v>44.326171875</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>379.51171875</v>
+      </c>
+      <c r="S9" t="n">
+        <v>21.416015625</v>
+      </c>
+      <c r="T9" t="n">
+        <v>886.7724609375</v>
+      </c>
+      <c r="U9" t="n">
+        <v>242.7978515625</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>26.396484375</v>
+      </c>
+      <c r="X9" t="n">
+        <v>7.7197265625</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>3.2373046875</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>30.6298828125</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>9.462890625</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>904.2041015625</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>324.7265625</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>139.2041015625</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>406.40625</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>236.8212890625</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>368.3056640625</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>112.060546875</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>91.142578125</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>248.2763671875</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>143.1884765625</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>79.189453125</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>360.087890625</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>541.6259765625</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>81.9287109375</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>107.3291015625</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>490.078125</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>6.73681640625</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>19.4619140625</v>
+      </c>
+      <c r="E10" t="n">
+        <v>28.69384765625</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>51.3994140625</v>
+      </c>
+      <c r="I10" t="n">
+        <v>28.4443359375</v>
+      </c>
+      <c r="J10" t="n">
+        <v>129.2470703125</v>
+      </c>
+      <c r="K10" t="n">
+        <v>203.85107421875</v>
+      </c>
+      <c r="L10" t="n">
+        <v>614.04833984375</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>552.66845703125</v>
+      </c>
+      <c r="P10" t="n">
+        <v>646.2353515625</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>683.91162109375</v>
+      </c>
+      <c r="R10" t="n">
+        <v>299.9130859375</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>367.28125</v>
+      </c>
+      <c r="V10" t="n">
+        <v>46.65869140625</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>6.986328125</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>19.21240234375</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>33.18505859375</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>47.65673828125</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>107.7890625</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>124.50634765625</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>294.67333984375</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>352.8095703125</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>765.501953125</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>642.49267578125</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>301.9091796875</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>1748.32861328125</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>116.52197265625</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>83.3369140625</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>242.77490234375</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>157.44189453125</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>65.62158203125</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>478.81298828125</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>587.849609375</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>95.8125</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>83.3369140625</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>36.17919921875</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>184.38916015625</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>13.48681640625</v>
+      </c>
+      <c r="D11" t="n">
+        <v>23.726806640625</v>
+      </c>
+      <c r="E11" t="n">
+        <v>19.98046875</v>
+      </c>
+      <c r="F11" t="n">
+        <v>108.8935546875</v>
+      </c>
+      <c r="G11" t="n">
+        <v>26.9736328125</v>
+      </c>
+      <c r="H11" t="n">
+        <v>65.685791015625</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>20.9794921875</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>65.685791015625</v>
+      </c>
+      <c r="M11" t="n">
+        <v>333.17431640625</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>515.49609375</v>
+      </c>
+      <c r="P11" t="n">
+        <v>83.668212890625</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>640.87353515625</v>
+      </c>
+      <c r="R11" t="n">
+        <v>371.386962890625</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1342.437744140625</v>
+      </c>
+      <c r="T11" t="n">
+        <v>107.145263671875</v>
+      </c>
+      <c r="U11" t="n">
+        <v>411.347900390625</v>
+      </c>
+      <c r="V11" t="n">
+        <v>26.9736328125</v>
+      </c>
+      <c r="W11" t="n">
+        <v>15.734619140625</v>
+      </c>
+      <c r="X11" t="n">
+        <v>20.9794921875</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>109.892578125</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>10.239990234375</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>42.708251953125</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>12.737548828125</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>695.3203125</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>239.515869140625</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>128.124755859375</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>540.97119140625</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>374.6337890625</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>19.48095703125</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>1029.49365234375</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>155.84765625</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>299.70703125</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>59.691650390625</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>61.43994140625</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>694.071533203125</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>136.8662109375</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>266.489501953125</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>60.690673828125</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>299.70703125</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>16.99169921875</v>
+      </c>
+      <c r="C12" t="n">
+        <v>16.2420654296875</v>
+      </c>
+      <c r="D12" t="n">
+        <v>26.2371826171875</v>
+      </c>
+      <c r="E12" t="n">
+        <v>46.7271728515625</v>
+      </c>
+      <c r="F12" t="n">
+        <v>67.7169189453125</v>
+      </c>
+      <c r="G12" t="n">
+        <v>9.7452392578125</v>
+      </c>
+      <c r="H12" t="n">
+        <v>35.982421875</v>
+      </c>
+      <c r="I12" t="n">
+        <v>133.6846923828125</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>835.3419189453125</v>
+      </c>
+      <c r="L12" t="n">
+        <v>565.4737548828125</v>
+      </c>
+      <c r="M12" t="n">
+        <v>460.77490234375</v>
+      </c>
+      <c r="N12" t="n">
+        <v>316.345458984375</v>
+      </c>
+      <c r="O12" t="n">
+        <v>965.028564453125</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>386.81103515625</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1096.964111328125</v>
+      </c>
+      <c r="T12" t="n">
+        <v>418.79541015625</v>
+      </c>
+      <c r="U12" t="n">
+        <v>336.335693359375</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>6.2469482421875</v>
+      </c>
+      <c r="X12" t="n">
+        <v>1.7491455078125</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>7.496337890625</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>56.7222900390625</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>88.95654296875</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>1.2493896484375</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>699.158447265625</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>640.68701171875</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>315.845703125</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>981.5205078125</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>269.6182861328125</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>194.405029296875</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>410.0496826171875</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>547.4825439453125</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>160.1717529296875</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>387.810546875</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>136.6832275390625</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>496.75732421875</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>62.469482421875</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>281.8623046875</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>578.9671630859375</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>981.5205078125</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>127.9375</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>63.7188720703125</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>388.81005859375</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>267.6192626953125</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -32007,7 +34697,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1669004</v>
+        <v>679590</v>
       </c>
     </row>
     <row r="3">
@@ -32015,7 +34705,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1601548.8</v>
+        <v>679590</v>
       </c>
     </row>
     <row r="4">
@@ -32023,7 +34713,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9061968.4</v>
+        <v>4207830</v>
       </c>
     </row>
     <row r="5">
@@ -32031,7 +34721,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3672116</v>
+        <v>1525570</v>
       </c>
     </row>
     <row r="6">
@@ -32039,7 +34729,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>10059008</v>
+        <v>4077540</v>
       </c>
     </row>
   </sheetData>
@@ -32085,7 +34775,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -32107,7 +34797,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -32129,7 +34819,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -32151,7 +34841,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -32173,7 +34863,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -32195,7 +34885,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -32217,7 +34907,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -32239,7 +34929,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -32261,7 +34951,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -32283,7 +34973,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -32305,7 +34995,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -32327,7 +35017,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -32349,7 +35039,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -32371,7 +35061,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -32393,7 +35083,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -32415,7 +35105,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -32437,7 +35127,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -32459,7 +35149,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -32481,7 +35171,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -32503,7 +35193,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -32525,7 +35215,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -32547,7 +35237,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -32569,7 +35259,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -32591,7 +35281,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -32613,7 +35303,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -32635,7 +35325,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -32657,7 +35347,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -32679,7 +35369,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -32701,7 +35391,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -32723,7 +35413,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -32745,7 +35435,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -32767,7 +35457,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -32789,7 +35479,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -32811,7 +35501,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -32833,7 +35523,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -32855,7 +35545,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -32877,7 +35567,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -32899,7 +35589,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -32921,7 +35611,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -32943,7 +35633,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -32965,7 +35655,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -32987,7 +35677,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -33009,7 +35699,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -33031,7 +35721,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -33053,7 +35743,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -33075,7 +35765,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -33097,7 +35787,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -33119,7 +35809,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -33141,7 +35831,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -33163,7 +35853,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -33185,7 +35875,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -33216,7 +35906,7 @@
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="F53" t="n">
         <v>0</v>
@@ -33238,7 +35928,7 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
@@ -33254,7 +35944,7 @@
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
@@ -33276,7 +35966,7 @@
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
@@ -33298,7 +35988,7 @@
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
@@ -33320,7 +36010,7 @@
         <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>19.6</v>
+        <v>1</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
@@ -33342,7 +36032,7 @@
         <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>19.6</v>
+        <v>1</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
@@ -33364,7 +36054,7 @@
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>19.6</v>
+        <v>1</v>
       </c>
       <c r="D60" t="n">
         <v>0</v>
@@ -33386,7 +36076,7 @@
         <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>19.6</v>
+        <v>1</v>
       </c>
       <c r="D61" t="n">
         <v>0</v>
@@ -33417,7 +36107,7 @@
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -33439,7 +36129,7 @@
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -33461,7 +36151,7 @@
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -33483,7 +36173,7 @@
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -33505,7 +36195,7 @@
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -33527,7 +36217,7 @@
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -33546,7 +36236,7 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>21.5</v>
+        <v>1</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
@@ -33568,7 +36258,7 @@
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>21.5</v>
+        <v>1</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
@@ -33590,7 +36280,7 @@
         <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>21.5</v>
+        <v>1</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
@@ -33609,7 +36299,7 @@
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
@@ -33631,7 +36321,7 @@
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="E72" t="n">
         <v>0</v>
@@ -33653,7 +36343,7 @@
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="E73" t="n">
         <v>0</v>
@@ -33675,7 +36365,7 @@
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="E74" t="n">
         <v>0</v>
@@ -33697,7 +36387,7 @@
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
@@ -33719,7 +36409,7 @@
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="E76" t="n">
         <v>0</v>
@@ -33741,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="E77" t="n">
         <v>0</v>
@@ -33763,7 +36453,7 @@
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E78" t="n">
         <v>0</v>
@@ -33785,7 +36475,7 @@
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="E79" t="n">
         <v>0</v>
@@ -33807,7 +36497,7 @@
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="E80" t="n">
         <v>0</v>
@@ -33829,7 +36519,7 @@
         <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="E81" t="n">
         <v>0</v>
@@ -33851,7 +36541,7 @@
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E82" t="n">
         <v>0</v>
@@ -33873,7 +36563,7 @@
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E83" t="n">
         <v>0</v>
@@ -33895,7 +36585,7 @@
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="E84" t="n">
         <v>0</v>
@@ -33917,7 +36607,7 @@
         <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>7.5</v>
+        <v>1</v>
       </c>
       <c r="E85" t="n">
         <v>0</v>
@@ -33939,7 +36629,7 @@
         <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>7.5</v>
+        <v>1</v>
       </c>
       <c r="E86" t="n">
         <v>0</v>
@@ -33961,7 +36651,7 @@
         <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>9.300000000000001</v>
+        <v>1</v>
       </c>
       <c r="E87" t="n">
         <v>0</v>
@@ -33983,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E88" t="n">
         <v>0</v>
@@ -34005,7 +36695,7 @@
         <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="E89" t="n">
         <v>0</v>
